--- a/database_old/Trace_Report_NOVAMEAL.xlsx
+++ b/database_old/Trace_Report_NOVAMEAL.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A9D205-749F-4BE3-861B-34474629E079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8A1E3F-9718-44CB-8F31-3F5AC7E51BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3045" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$2:$N$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Initial</t>
   </si>
@@ -71,24 +71,18 @@
     <t>TILX</t>
   </si>
   <si>
-    <t>WILLMAR</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>HWLMKC</t>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
   </si>
   <si>
     <t>LOVELAND</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -98,13 +92,16 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 05/12/2023 05:59:19 EDT, by WPJTOWN1.The search returned: 1 events.</t>
+    <t>Description unknown, completed 06/15/2023 05:57:14 EDT, by WPJTOWN1.The search returned: 1 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
     <t>TILX635774</t>
+  </si>
+  <si>
+    <t>1 On Hand</t>
   </si>
 </sst>
 </file>
@@ -247,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +422,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -588,9 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -946,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
@@ -961,7 +965,8 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -972,111 +977,113 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>635774</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1811</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>285200</v>
+      </c>
+      <c r="M4" s="2">
+        <v>67300</v>
+      </c>
+      <c r="N4" s="2">
+        <v>217900</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>635774</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>128</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>285200</v>
-      </c>
-      <c r="M3">
-        <v>67300</v>
-      </c>
-      <c r="N3">
-        <v>217900</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N3">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N3">
-      <sortCondition ref="D3" customList="CO"/>
-      <sortCondition ref="H3" customList="Placed Actual,Placed Construct"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A3:O4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O4">
+    <sortCondition ref="D4" customList="CO"/>
+    <sortCondition ref="H4" customList="Placed Actual,Placed Construct"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>